--- a/Dataset Fcomp.xlsx
+++ b/Dataset Fcomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 TA Cok!\0Terbaru ges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C5A647-1514-43C8-9248-DE0C8120FCA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89A167-18B0-4875-AF75-2DF12B0763CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AB2A9AE1-F741-4803-8467-605AA1B98E53}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>d_rad</t>
   </si>
@@ -83,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,18 +106,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9A4416-97FD-4713-9F8B-F7B57D5C9FFB}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:C49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -520,178 +547,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>9.9999999999999006E-2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>9.9999999999999006E-2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>117152.64104628554</v>
+        <v>152.06084039379692</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>0.149999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="B3" s="4">
-        <v>0.149999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C3" s="2">
-        <v>33619.404468294037</v>
+        <v>172.96001234219855</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0.19999999999999901</v>
+        <v>0.9</v>
       </c>
       <c r="B4" s="4">
-        <v>0.19999999999999901</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>13484.804623578058</v>
+        <v>197.10993744455845</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>0.249999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="B5" s="4">
-        <v>0.249999999999999</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>6748.4625372348355</v>
+        <v>209.54319129552903</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.25</v>
+      <c r="B6" s="4">
+        <v>0.8</v>
       </c>
       <c r="C6" s="2">
-        <v>1645.9744378323949</v>
+        <v>210.03337703261408</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.25</v>
+      <c r="A7" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.85</v>
       </c>
       <c r="C7" s="2">
-        <v>1991.330465992465</v>
+        <v>225.55108027718418</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.25</v>
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.75</v>
       </c>
       <c r="C8" s="2">
-        <v>2816.5323267317617</v>
+        <v>231.77003859132262</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>0.29999999999999899</v>
+        <v>0.95</v>
       </c>
       <c r="B9" s="4">
-        <v>0.29999999999999899</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="2">
-        <v>3907.538492161344</v>
+        <v>242.40232917093894</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>0.34999999999999898</v>
+        <v>0.9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.34999999999999898</v>
+        <v>0.75</v>
       </c>
       <c r="C10" s="2">
-        <v>2456.6067979842896</v>
+        <v>255.23550126133341</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B11" s="4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="C11" s="2">
-        <v>1576.4809069284429</v>
+        <v>261.37698271895732</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>0.39999999999999902</v>
+        <v>0.85</v>
       </c>
       <c r="B12" s="4">
-        <v>0.39999999999999902</v>
+        <v>0.75</v>
       </c>
       <c r="C12" s="2">
-        <v>1675.6804498783581</v>
+        <v>269.71937726476767</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B13" s="4">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="C13" s="2">
-        <v>1266.7257868301833</v>
+        <v>286.85808779609812</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B14" s="4">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="2">
-        <v>1048.91130526391</v>
+        <v>307.61481345878531</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="B15" s="4">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="C15" s="2">
-        <v>1202.4774270512321</v>
+        <v>333.1313999489463</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.5</v>
+      <c r="A16" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.75</v>
       </c>
       <c r="C16" s="2">
-        <v>454.36805357324147</v>
+        <v>364.05656760868465</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.5</v>
+      <c r="A17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.7</v>
       </c>
       <c r="C17" s="2">
-        <v>575.75230646290981</v>
+        <v>366.62919287670502</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,377 +726,369 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>897.31280131090421</v>
+        <v>370.85382254460745</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.5</v>
+      <c r="A19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.75</v>
       </c>
       <c r="C19" s="2">
-        <v>2575.4524391886766</v>
+        <v>402.41601641614631</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="B20" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="C20" s="2">
-        <v>692.88500641550957</v>
+        <v>443.748862426323</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B21" s="4">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C21" s="2">
-        <v>548.78501120726276</v>
+        <v>451.42289214694296</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.65</v>
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.5</v>
       </c>
       <c r="C22" s="2">
-        <v>443.748862426323</v>
+        <v>454.36805357324147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="B23" s="4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="2">
-        <v>366.62919287670502</v>
+        <v>515.43079555585587</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B24" s="4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C24" s="2">
-        <v>231.77003859132262</v>
+        <v>548.78501120726276</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.75</v>
+      <c r="A25" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.5</v>
       </c>
       <c r="C25" s="2">
-        <v>242.40232917093894</v>
+        <v>575.75230646290981</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="B26" s="4">
         <v>0.75</v>
       </c>
       <c r="C26" s="2">
-        <v>255.23550126133341</v>
+        <v>602.12975381904766</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B27" s="4">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C27" s="2">
-        <v>269.71937726476767</v>
+        <v>692.88500641550957</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>0.8</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="B28" s="4">
         <v>0.75</v>
       </c>
       <c r="C28" s="2">
-        <v>286.85808779609812</v>
+        <v>726.13420869644256</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B29" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="2">
-        <v>307.61481345878531</v>
+        <v>897.31280131090421</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>0.7</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="B30" s="4">
         <v>0.75</v>
       </c>
       <c r="C30" s="2">
-        <v>333.1313999489463</v>
+        <v>900.99882281723603</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="B31" s="4">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C31" s="2">
-        <v>364.05656760868465</v>
+        <v>1048.91130526391</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>0.6</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="B32" s="4">
         <v>0.75</v>
       </c>
       <c r="C32" s="2">
-        <v>402.41601641614631</v>
+        <v>1171.9887814533859</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="B33" s="4">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C33" s="2">
-        <v>451.42289214694296</v>
+        <v>1202.4774270512321</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B34" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>515.43079555585587</v>
+        <v>1220.1270123555694</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B35" s="4">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="C35" s="2">
-        <v>602.12975381904766</v>
+        <v>1266.7257868301833</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>0.39999999999999902</v>
+        <v>0.5</v>
       </c>
       <c r="B36" s="4">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="C36" s="2">
-        <v>726.13420869644256</v>
+        <v>1576.4809069284429</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>0.34999999999999898</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="B37" s="4">
         <v>0.75</v>
       </c>
       <c r="C37" s="2">
-        <v>900.99882281723603</v>
+        <v>1623.1879001843247</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>0.29999999999999899</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.75</v>
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.25</v>
       </c>
       <c r="C38" s="2">
-        <v>1171.9887814533859</v>
+        <v>1645.9744378323949</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>0.249999999999999</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="B39" s="4">
-        <v>0.75</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="C39" s="2">
-        <v>1623.1879001843247</v>
+        <v>1675.6804498783581</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>0.19999999999999901</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.75</v>
+      <c r="A40" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.25</v>
       </c>
       <c r="C40" s="2">
-        <v>2435.4732298375106</v>
+        <v>1991.330465992465</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>0.149999999999999</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="B41" s="4">
         <v>0.75</v>
       </c>
       <c r="C41" s="2">
-        <v>4127.9716689049483</v>
+        <v>2435.4732298375106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>9.9999999999999006E-2</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="B42" s="4">
-        <v>0.75</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="C42" s="2">
-        <v>8695.5597924267349</v>
+        <v>2456.6067979842896</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.8</v>
+      <c r="A43" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.5</v>
       </c>
       <c r="C43" s="2">
-        <v>210.03337703261408</v>
+        <v>2575.4524391886766</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.8</v>
+      <c r="A44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.25</v>
       </c>
       <c r="C44" s="2">
-        <v>261.37698271895732</v>
+        <v>2816.5323267317617</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>0.85</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="B45" s="4">
-        <v>0.85</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="C45" s="2">
-        <v>225.55108027718418</v>
+        <v>3907.538492161344</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>0.9</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="B46" s="4">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C46" s="2">
-        <v>197.10993744455845</v>
+        <v>4127.9716689049483</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>0.95</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="B47" s="4">
-        <v>0.95</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="C47" s="2">
-        <v>172.96001234219855</v>
+        <v>6748.4625372348355</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>1</v>
+        <v>9.9999999999999006E-2</v>
       </c>
       <c r="B48" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C48" s="2">
-        <v>152.06084039379692</v>
+        <v>8695.5597924267349</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
+      <c r="A49" s="6">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.19999999999999901</v>
       </c>
       <c r="C49" s="2">
-        <v>209.54319129552903</v>
+        <v>13484.804623578058</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>370.85382254460745</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1220.1270123555694</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{5E02F18E-9BB8-40C0-9818-94A7FF2CDBAE}"/>
+  <autoFilter ref="A1:C1" xr:uid="{5E02F18E-9BB8-40C0-9818-94A7FF2CDBAE}">
+    <sortState ref="A2:C51">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>